--- a/BuYuDaRen/Assets/Arts/Excel/FishData.xlsx
+++ b/BuYuDaRen/Assets/Arts/Excel/FishData.xlsx
@@ -1317,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
@@ -1363,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
@@ -1386,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>30</v>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1">
         <v>50</v>
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1">
         <v>60</v>
@@ -1478,7 +1478,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -1501,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1">
         <v>150</v>
@@ -1524,7 +1524,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1">
         <v>150</v>
@@ -1547,7 +1547,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1">
         <v>200</v>
@@ -1570,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1">
         <v>200</v>
@@ -1593,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="1">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1">
         <v>250</v>
@@ -1616,7 +1616,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="1">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="F16" s="1">
         <v>300</v>
@@ -1639,7 +1639,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="1">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="F17" s="1">
         <v>400</v>
@@ -1662,7 +1662,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="1">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1">
         <v>600</v>

--- a/BuYuDaRen/Assets/Arts/Excel/FishData.xlsx
+++ b/BuYuDaRen/Assets/Arts/Excel/FishData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -50,9 +50,24 @@
     <t>exp</t>
   </si>
   <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
     <t>小丑鱼</t>
   </si>
   <si>
+    <t>FX_获分_02</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>小蓝鱼</t>
   </si>
   <si>
@@ -71,6 +86,9 @@
     <t>神仙鱼</t>
   </si>
   <si>
+    <t>Sliver</t>
+  </si>
+  <si>
     <t>蝴蝶鱼</t>
   </si>
   <si>
@@ -80,6 +98,12 @@
     <t>灯笼鱼</t>
   </si>
   <si>
+    <t>FX_角色_灯笼鱼_02</t>
+  </si>
+  <si>
+    <t>SmallGold</t>
+  </si>
+  <si>
     <t>石斑鱼</t>
   </si>
   <si>
@@ -89,16 +113,37 @@
     <t>枪鱼</t>
   </si>
   <si>
+    <t>FX_角色_金枪鱼_01</t>
+  </si>
+  <si>
     <t>乌龟</t>
   </si>
   <si>
+    <t>FX_角色_乌龟_01</t>
+  </si>
+  <si>
     <t>魔鬼鱼</t>
   </si>
   <si>
+    <t>FX_角色_蝙蝠鱼_01</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>银鲨</t>
   </si>
   <si>
+    <t>FX_角色_大银鲨_01</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
     <t>金鲨</t>
+  </si>
+  <si>
+    <t>FX_角色_大金鲨_01</t>
   </si>
 </sst>
 </file>
@@ -1246,18 +1291,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="19" width="9.23076923076923" style="1"/>
+    <col min="1" max="7" width="9.23076923076923" style="1"/>
+    <col min="8" max="8" width="25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.8653846153846" style="1" customWidth="1"/>
+    <col min="10" max="19" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,13 +1327,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -1302,13 +1359,22 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>15</v>
@@ -1325,13 +1391,22 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>15</v>
@@ -1348,13 +1423,22 @@
       <c r="G4" s="1">
         <v>5</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>15</v>
@@ -1371,13 +1455,22 @@
       <c r="G5" s="1">
         <v>5</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
@@ -1394,13 +1487,22 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>35</v>
@@ -1417,13 +1519,22 @@
       <c r="G7" s="1">
         <v>10</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>50</v>
@@ -1440,13 +1551,22 @@
       <c r="G8" s="1">
         <v>20</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>60</v>
@@ -1463,13 +1583,22 @@
       <c r="G9" s="1">
         <v>30</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
@@ -1486,13 +1615,22 @@
       <c r="G10" s="1">
         <v>40</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>110</v>
@@ -1509,13 +1647,22 @@
       <c r="G11" s="1">
         <v>50</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>130</v>
@@ -1532,13 +1679,22 @@
       <c r="G12" s="1">
         <v>60</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -1555,13 +1711,22 @@
       <c r="G13" s="1">
         <v>70</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>200</v>
@@ -1578,13 +1743,22 @@
       <c r="G14" s="1">
         <v>80</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>250</v>
@@ -1601,13 +1775,22 @@
       <c r="G15" s="1">
         <v>90</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>300</v>
@@ -1624,13 +1807,22 @@
       <c r="G16" s="1">
         <v>100</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>350</v>
@@ -1647,13 +1839,22 @@
       <c r="G17" s="1">
         <v>200</v>
       </c>
+      <c r="H17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>500</v>
@@ -1669,6 +1870,15 @@
       </c>
       <c r="G18" s="1">
         <v>400</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
